--- a/biology/Botanique/Ectocarpus/Ectocarpus.xlsx
+++ b/biology/Botanique/Ectocarpus/Ectocarpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ectocarpus est un genre d’algues brunes de la famille des Ectocarpaceae.  
-Les organismes modèles végétaux sont nécessaires pour comprendre l’évolution des eucaryotes et ainsi l’évolution de la multicellularité, c’est pour cela que le genre Ectocarpus apparaît comme un modèle d’algues brunes en biologie évolutive du développement. En tant qu'algue brune, Ectocarpus appartient aux Straménopiles et se présente sous la forme de petites algues filamenteuses présentant toutes les caractéristiques d’un organisme modèle : cycle de vie court (deux mois en laboratoire pour obtenir des sporophytes – génération produisant des spores – ou des gamétophytes – génération produisant des gamètes), facile à manipuler du fait de sa petite taille,  un développement rapide avec un nombre de réplicats disponibles importants. Le génome d’Ectocarpus siliculosus a été séquencé (214 Mpb), ce qui présente un intérêt majeur pour l’utilisation de cet organisme en tant que modèle. De plus de nombreux outils d’analyse sont déjà disponibles pour répondre à différentes questions de recherche, par exemple la création de mutants par les UV ou par mutagénèse chimique, de l’immunohistochimie, ou encore le séquençage de cellule unique. Les limites du modèle reposent sur les difficultés à réaliser des modifications au sein du génome et donc utiliser des approches de génétique inverse (du gène au phénotype), même si le système CRISPR-Cas9 est actuellement envisagé pour ce type d’approche chez Ectocarpus[1].
+Les organismes modèles végétaux sont nécessaires pour comprendre l’évolution des eucaryotes et ainsi l’évolution de la multicellularité, c’est pour cela que le genre Ectocarpus apparaît comme un modèle d’algues brunes en biologie évolutive du développement. En tant qu'algue brune, Ectocarpus appartient aux Straménopiles et se présente sous la forme de petites algues filamenteuses présentant toutes les caractéristiques d’un organisme modèle : cycle de vie court (deux mois en laboratoire pour obtenir des sporophytes – génération produisant des spores – ou des gamétophytes – génération produisant des gamètes), facile à manipuler du fait de sa petite taille,  un développement rapide avec un nombre de réplicats disponibles importants. Le génome d’Ectocarpus siliculosus a été séquencé (214 Mpb), ce qui présente un intérêt majeur pour l’utilisation de cet organisme en tant que modèle. De plus de nombreux outils d’analyse sont déjà disponibles pour répondre à différentes questions de recherche, par exemple la création de mutants par les UV ou par mutagénèse chimique, de l’immunohistochimie, ou encore le séquençage de cellule unique. Les limites du modèle reposent sur les difficultés à réaliser des modifications au sein du génome et donc utiliser des approches de génétique inverse (du gène au phénotype), même si le système CRISPR-Cas9 est actuellement envisagé pour ce type d’approche chez Ectocarpus.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (31 oct. 2012)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (31 oct. 2012) :
 Ectocarpus acanthophorus Kützing
 Ectocarpus acutoramulis Noda
 Ectocarpus acutus Setchell &amp; N.L.Gardner
@@ -705,7 +719,7 @@
 Ectocarpus yezoensis Yamada &amp; Tanaka
 Ectocarpus zonariae W.R.Taylor
 Ectocarpus zosterae Noda &amp; Ohta
-Selon Catalogue of Life                                  (31 oct. 2012)[3] :
+Selon Catalogue of Life                                  (31 oct. 2012) :
 Ectocarpus acanthophorus
 Ectocarpus acuto-ramulis
 Ectocarpus acutus
@@ -828,7 +842,7 @@
 Ectocarpus yezoensis
 Ectocarpus zonariae
 Ectocarpus zosterae
-Selon ITIS      (31 oct. 2012)[4] :
+Selon ITIS      (31 oct. 2012) :
 Ectocarpus acutus Setchell &amp; Gardner, 1922
 Ectocarpus breviarticulatus J. Agardh
 Ectocarpus chantransioides
@@ -855,12 +869,12 @@
 Ectocarpus taoniae
 Ectocarpus tomentosus
 Ectocarpus variabilis
-Selon NCBI  (31 oct. 2012)[5] :
+Selon NCBI  (31 oct. 2012) :
 Ectocarpus crouaniorum
 Ectocarpus fasciculatus
 Ectocarpus siliculosus
 Ectocarpus variabilis
-Selon World Register of Marine Species                               (31 oct. 2012)[6] :
+Selon World Register of Marine Species                               (31 oct. 2012) :
 Ectocarpus acanthophorus Kützing
 Ectocarpus acuto-ramulis Noda, 1969
 Ectocarpus acutus Setchell &amp; N.L.Gardner, 1922
